--- a/biology/Biologie cellulaire et moléculaire/Score_de_qualité_phred/Score_de_qualité_phred.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Score_de_qualité_phred/Score_de_qualité_phred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Score_de_qualit%C3%A9_phred</t>
+          <t>Score_de_qualité_phred</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les scores de qualité phred (aussi appelé scores phred) ont été originellement développés pour le programme Phred afin d'aider à l'automatisation du séquençage d'ADN lors du Projet Génome Humain. Ces scores de qualité sont assignés à chaque base nucléique issu d'un électrophorègramme de séquençage automatique[1],[2]. Ils sont devenus par la suite un standard permettant de caractériser la qualité d'une séquence d'ADN et sont utilisés pour comparer l'efficacité des différentes techniques de séquençage. Cependant, l'utilisation la plus courante de ces scores de qualité concerne la détermination de l'exactitude des séquences consensus basées sur la qualité de séquençage.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les scores de qualité phred (aussi appelé scores phred) ont été originellement développés pour le programme Phred afin d'aider à l'automatisation du séquençage d'ADN lors du Projet Génome Humain. Ces scores de qualité sont assignés à chaque base nucléique issu d'un électrophorègramme de séquençage automatique,. Ils sont devenus par la suite un standard permettant de caractériser la qualité d'une séquence d'ADN et sont utilisés pour comparer l'efficacité des différentes techniques de séquençage. Cependant, l'utilisation la plus courante de ces scores de qualité concerne la détermination de l'exactitude des séquences consensus basées sur la qualité de séquençage.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Score_de_qualit%C3%A9_phred</t>
+          <t>Score_de_qualité_phred</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'idée de scores de qualité a émergé lors de la description du format de ficher SCF par l'équipe de Staden en 1992[3]. En 1995, Bonfield et Staden proposent une méthode utilisant des scores de qualité pour chaque base séquencée afin d'améliorer la précision des séquences consensus dans les projets de séquençage d'ADN[4]. Cependant, des précédents essais pour développer un tel système de scores[5],[6] ont eu un succès relativement limité.
-Le premier programme créé pour développer un système précis et puissant de scores assigné à chaque base fut le programme Phred[1]. Phred est capable de calculer des scores de qualité très précis qui sont liés de façon logarithmique à la probabilité d'erreur de séquençage[2]. Phred fut rapidement adopté par tous les grands centres de séquençage de génome ainsi que d'autres laboratoires. La plus grande partie des séquences d'ADN produites lors du Projet Génome Humain a été traitée avec Phred.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idée de scores de qualité a émergé lors de la description du format de ficher SCF par l'équipe de Staden en 1992. En 1995, Bonfield et Staden proposent une méthode utilisant des scores de qualité pour chaque base séquencée afin d'améliorer la précision des séquences consensus dans les projets de séquençage d'ADN. Cependant, des précédents essais pour développer un tel système de scores, ont eu un succès relativement limité.
+Le premier programme créé pour développer un système précis et puissant de scores assigné à chaque base fut le programme Phred. Phred est capable de calculer des scores de qualité très précis qui sont liés de façon logarithmique à la probabilité d'erreur de séquençage. Phred fut rapidement adopté par tous les grands centres de séquençage de génome ainsi que d'autres laboratoires. La plus grande partie des séquences d'ADN produites lors du Projet Génome Humain a été traitée avec Phred.
 Ainsi les scores de qualité phred sont devenus un standard du séquençage d'ADN, plusieurs manufacturiers d'instruments de séquençage développant des méthodes d'évaluation de qualité similaires pour leur programme d'identification de bases, tels que les entreprises ABI ou Illumina.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Score_de_qualit%C3%A9_phred</t>
+          <t>Score_de_qualité_phred</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Méthodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'approche du programme Phred pour identifier les bases et calculer un score de qualité associé a été décrit par Ewing et al.[1]. Afin de déterminer un score de qualité, Phred calcule tout d'abord plusieurs paramètres relatifs à la forme et la résolution du pic d'électrophorèse de chaque base. Ensuite, le programme utilise ces paramètres pour rechercher un score de qualité dans des immenses tables de correspondance. Ces tables sont issues d'électrophorègrammes de séquençage provenant de séquences correctement séquencées et sont inclus dans le code source de Phred. Différentes tables de correspondance sont utilisées pour différentes techniques de séquençage ainsi que différentes machines. Une évaluation de la précision des scores de qualité en fonction d'un nombre de variations pour une techniques de séquençage et une machine données montre que les scores de qualité sont d'une très grande précision[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'approche du programme Phred pour identifier les bases et calculer un score de qualité associé a été décrit par Ewing et al.. Afin de déterminer un score de qualité, Phred calcule tout d'abord plusieurs paramètres relatifs à la forme et la résolution du pic d'électrophorèse de chaque base. Ensuite, le programme utilise ces paramètres pour rechercher un score de qualité dans des immenses tables de correspondance. Ces tables sont issues d'électrophorègrammes de séquençage provenant de séquences correctement séquencées et sont inclus dans le code source de Phred. Différentes tables de correspondance sont utilisées pour différentes techniques de séquençage ainsi que différentes machines. Une évaluation de la précision des scores de qualité en fonction d'un nombre de variations pour une techniques de séquençage et une machine données montre que les scores de qualité sont d'une très grande précision.
 Phred fut à l'origine développé pour des séquenceurs sur plaque de gel tels que l'ABI373. Il avait alors un taux d'erreur d'identification de bases plus faible que les programmes fournis par les manufacturiers qui ne donnaient par ailleurs aucun score de qualité. Cependant, Phred n'a été que partiellement adapté aux séquenceurs multicapillaires qui deviendront populaire par la suite. En revanche, les manufacturiers comme ABI continuèrent d'adapter leurs programmes d'identification de bases aux nouvelles techniques de séquençage et inclurent la possibilité d'obtenir des scores de qualité similaires à ceux donnés par Phred. Ainsi le besoin d'utiliser Phred pour l'identification de bases issus d'électrophorègrammes de séquençage diminua au profit de l'utilisation des programmes conçus par les manufacturiers, donnant par ailleurs des résultats souvent plus précis.
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Score_de_qualit%C3%A9_phred</t>
+          <t>Score_de_qualité_phred</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les scores de qualité phred sont utilisés pour :
 l'estimation de la qualité des séquences
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Score_de_qualit%C3%A9_phred</t>
+          <t>Score_de_qualité_phred</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Fiabilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les scores de qualité phred 
         Q
@@ -621,7 +641,7 @@
  ont pour propriété d'être reliés de façon logarithmique à la probabilité d'erreur d'identification d'une base 
         P
     {\displaystyle P}
-[2].
+.
         Q
         =
         −
